--- a/biology/Botanique/Pachyphytum/Pachyphytum.xlsx
+++ b/biology/Botanique/Pachyphytum/Pachyphytum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachyphytum est un genre botanique appartenant à la famille des Crassulaceae et comprenant une quinzaine d'espèces succulentes. Ces plantes sont originaires de régions du Mexique situées à une altitude de 600 à 1 500 m.
 Le nom vient du grec pachys (=épais) et phyton (=plante) en raison des feuilles épaisses des diverses espèces. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes pérennes dont les tiges sont d'abord dressées, puis retombantes avec l'âge et le poids des feuilles.
 Chaque tige possède une rosette de feuilles plus ou moins épaisses suivant les espèces. C'est cette épaisseur qui a donné son nom au genre.
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de difficultés particulières, en dehors du risque d'arrosage excessif. Le sol doit être très drainant. A besoin d'un repos en hiver pour pouvoir fleurir. Au frais et au sec, le risque de pourriture étant encore plus fort. 
 Les Pachyphytum se multiplient très facilement par bouture ou division des touffes.
@@ -580,7 +596,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pachyphytum bracteosum
